--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3144.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3144.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.092847747148723</v>
+        <v>1.032120108604431</v>
       </c>
       <c r="B1">
-        <v>2.42861126880932</v>
+        <v>1.378272771835327</v>
       </c>
       <c r="C1">
-        <v>3.751473712115538</v>
+        <v>2.228050947189331</v>
       </c>
       <c r="D1">
-        <v>4.306692419321906</v>
+        <v>4.465785026550293</v>
       </c>
       <c r="E1">
-        <v>1.547748241063138</v>
+        <v>1.993577718734741</v>
       </c>
     </row>
   </sheetData>
